--- a/data.xlsx
+++ b/data.xlsx
@@ -369,8 +369,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E68"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="A51" workbookViewId="0">
+      <selection activeCell="F59" sqref="F59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -390,7 +390,9 @@
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="1"/>
+      <c r="B2" s="1">
+        <v>3</v>
+      </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
     </row>
@@ -398,7 +400,9 @@
       <c r="A3">
         <v>1</v>
       </c>
-      <c r="B3" s="1"/>
+      <c r="B3" s="1">
+        <v>3</v>
+      </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
     </row>
@@ -406,35 +410,50 @@
       <c r="A4">
         <v>2</v>
       </c>
-      <c r="B4" s="1"/>
+      <c r="B4" s="1">
+        <v>3</v>
+      </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>3</v>
       </c>
-      <c r="B5" s="1"/>
+      <c r="B5" s="1">
+        <v>3</v>
+      </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>3</v>
       </c>
-      <c r="B6" s="1"/>
+      <c r="B6" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>2</v>
+      </c>
+      <c r="B7" s="1">
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>1</v>
       </c>
+      <c r="B8" s="1">
+        <v>3</v>
+      </c>
       <c r="E8" s="2"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>3</v>
       </c>
+      <c r="B9" s="1">
+        <v>2</v>
+      </c>
       <c r="C9" s="2"/>
       <c r="E9" s="2"/>
     </row>
@@ -442,6 +461,9 @@
       <c r="A10">
         <v>2</v>
       </c>
+      <c r="B10" s="1">
+        <v>3</v>
+      </c>
       <c r="C10" s="2"/>
       <c r="E10" s="2"/>
     </row>
@@ -449,6 +471,9 @@
       <c r="A11">
         <v>2</v>
       </c>
+      <c r="B11" s="1">
+        <v>3</v>
+      </c>
       <c r="C11" s="2"/>
       <c r="E11" s="2"/>
     </row>
@@ -456,23 +481,35 @@
       <c r="A12">
         <v>3</v>
       </c>
+      <c r="B12" s="1">
+        <v>3</v>
+      </c>
       <c r="C12" s="2"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>2</v>
       </c>
+      <c r="B13" s="1">
+        <v>3</v>
+      </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>2</v>
       </c>
+      <c r="B14" s="1">
+        <v>3</v>
+      </c>
       <c r="E14" s="2"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>2</v>
       </c>
+      <c r="B15" s="1">
+        <v>0</v>
+      </c>
       <c r="C15" s="2"/>
       <c r="E15" s="2"/>
     </row>
@@ -480,266 +517,425 @@
       <c r="A16">
         <v>2</v>
       </c>
+      <c r="B16" s="1">
+        <v>3</v>
+      </c>
       <c r="C16" s="2"/>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B17" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>4</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B18" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>3</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B19" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B20" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B21" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>2</v>
       </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B22" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>2</v>
       </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B23" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B24" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>2</v>
       </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B25" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B26" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>2</v>
       </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B27" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>2</v>
       </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B28" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>2</v>
       </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B29" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>2</v>
       </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B30" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>2</v>
       </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B31" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B32" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>2</v>
       </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B33" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>2</v>
       </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B34" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>2</v>
       </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B35" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B36" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>4</v>
       </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B37" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>2</v>
       </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B38" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>2</v>
       </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B39" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>2</v>
       </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B40" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>2</v>
       </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B41" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B42" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>2</v>
       </c>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B43" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>2</v>
       </c>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B44" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>2</v>
       </c>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B45" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>2</v>
       </c>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B46" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B47" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B48" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>5</v>
       </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B49" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>2</v>
       </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B50" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>4</v>
       </c>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B51" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>5</v>
       </c>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B52" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>5</v>
       </c>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B53" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>4</v>
       </c>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B54" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>2</v>
       </c>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B55" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>1</v>
       </c>
-    </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B56" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>5</v>
       </c>
-    </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B57" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>2</v>
       </c>
-    </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B58" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B59" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>2</v>
       </c>
-    </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B60" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>3</v>
       </c>
-    </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B61" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>4</v>
       </c>
-    </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B62" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>2</v>
       </c>
-    </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B63" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>5</v>
       </c>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B64" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>2</v>
       </c>
-    </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B65" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>4</v>
       </c>
-    </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B66" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>2</v>
       </c>
-    </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B67" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>2</v>
+      </c>
+      <c r="B68" s="1">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/data.xlsx
+++ b/data.xlsx
@@ -4,22 +4,35 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="96" yWindow="48" windowWidth="16260" windowHeight="5832"/>
+    <workbookView xWindow="96" yWindow="48" windowWidth="16260" windowHeight="5832" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="hasil screening" sheetId="1" r:id="rId1"/>
+    <sheet name="screening + -" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="6">
   <si>
     <t>motivasi menghafal alquran</t>
   </si>
   <si>
     <t>efikasi diri</t>
+  </si>
+  <si>
+    <t>motivasi</t>
+  </si>
+  <si>
+    <t>efikasi</t>
+  </si>
+  <si>
+    <t>+</t>
+  </si>
+  <si>
+    <t>-</t>
   </si>
 </sst>
 </file>
@@ -42,12 +55,24 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -62,10 +87,22 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -369,9 +406,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A51" workbookViewId="0">
-      <selection activeCell="F59" sqref="F59"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -942,4 +977,59 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="2" width="4.33203125" customWidth="1"/>
+    <col min="3" max="4" width="3.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="5"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>0</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:D1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/data.xlsx
+++ b/data.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="10">
   <si>
     <t>motivasi menghafal alquran</t>
   </si>
@@ -42,6 +42,9 @@
   </si>
   <si>
     <t>persentase</t>
+  </si>
+  <si>
+    <t>negatif</t>
   </si>
 </sst>
 </file>
@@ -115,13 +118,13 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -438,14 +441,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" s="6"/>
+      <c r="A1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="6"/>
+      <c r="C1" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="7"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
@@ -480,10 +483,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E71"/>
+  <dimension ref="A1:I72"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A56" workbookViewId="0">
-      <selection activeCell="A71" sqref="A71:B71"/>
+      <selection activeCell="I68" sqref="I68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1021,7 +1024,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A65" s="1">
         <v>2</v>
       </c>
@@ -1029,7 +1032,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A66" s="1">
         <v>2</v>
       </c>
@@ -1037,7 +1040,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A67" s="1">
         <v>3</v>
       </c>
@@ -1045,15 +1048,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A68" s="1">
         <v>2</v>
       </c>
       <c r="B68" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="H68" t="s">
+        <v>2</v>
+      </c>
+      <c r="I68" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A69" s="1">
         <f>SUM(A2:A68)</f>
         <v>171</v>
@@ -1065,8 +1074,30 @@
       <c r="C69" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D69">
+        <f>A69/6</f>
+        <v>28.5</v>
+      </c>
+      <c r="E69">
+        <f>B69/3</f>
+        <v>29.333333333333332</v>
+      </c>
+      <c r="F69">
+        <v>28</v>
+      </c>
+      <c r="G69">
+        <v>29</v>
+      </c>
+      <c r="H69" s="5">
+        <f t="shared" ref="H69:I69" si="0">F69/F70</f>
+        <v>0.41791044776119401</v>
+      </c>
+      <c r="I69" s="5">
+        <f t="shared" si="0"/>
+        <v>0.43283582089552236</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A70" s="1">
         <f>6*67</f>
         <v>402</v>
@@ -1078,18 +1109,63 @@
       <c r="C70" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A71" s="7">
-        <f t="shared" ref="A71:B71" si="0">A69/A70</f>
+      <c r="D70">
+        <v>67</v>
+      </c>
+      <c r="E70">
+        <v>67</v>
+      </c>
+      <c r="F70">
+        <v>67</v>
+      </c>
+      <c r="G70">
+        <v>67</v>
+      </c>
+      <c r="H70" s="5"/>
+      <c r="I70" s="5"/>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A71" s="5">
+        <f t="shared" ref="A71:B71" si="1">A69/A70</f>
         <v>0.42537313432835822</v>
       </c>
-      <c r="B71" s="7">
-        <f t="shared" si="0"/>
+      <c r="B71" s="5">
+        <f t="shared" si="1"/>
         <v>0.43781094527363185</v>
       </c>
       <c r="C71" t="s">
         <v>8</v>
+      </c>
+      <c r="H71" s="5"/>
+      <c r="I71" s="5"/>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="C72" t="s">
+        <v>9</v>
+      </c>
+      <c r="D72">
+        <f t="shared" ref="D72:E72" si="2">D70-D69</f>
+        <v>38.5</v>
+      </c>
+      <c r="E72">
+        <f t="shared" ref="E72:G72" si="3">E70-E69</f>
+        <v>37.666666666666671</v>
+      </c>
+      <c r="F72">
+        <f t="shared" si="3"/>
+        <v>39</v>
+      </c>
+      <c r="G72">
+        <f t="shared" si="3"/>
+        <v>38</v>
+      </c>
+      <c r="H72" s="5">
+        <f t="shared" ref="H72:I72" si="4">F72/F70</f>
+        <v>0.58208955223880599</v>
+      </c>
+      <c r="I72" s="5">
+        <f t="shared" si="4"/>
+        <v>0.56716417910447758</v>
       </c>
     </row>
   </sheetData>
